--- a/Süreler.xlsx
+++ b/Süreler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cem.murat\Desktop\Okul\Bitirme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1026A78B-15DA-467A-B03D-11B4BAC5A59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912DE791-6E9C-4FB4-9C2E-DF5B80B9DB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="2220" windowWidth="21600" windowHeight="11325" xr2:uid="{970B50EC-8675-4306-A8E1-3CBB9ABC661A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Algoritma</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Hesh</t>
   </si>
   <si>
-    <t>Eliptik eğri</t>
-  </si>
-  <si>
     <t>Süre</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
   </si>
   <si>
     <t>6,7276000045239925</t>
-  </si>
-  <si>
-    <t>245,0603999895975</t>
   </si>
   <si>
     <t>2,3114000214263797</t>
@@ -467,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9F7962-F68F-4FA3-83CE-93F64327D8F2}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,7 +478,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -492,7 +486,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -500,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -508,7 +502,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -516,7 +510,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -524,7 +518,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -532,15 +526,15 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -548,7 +542,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -556,31 +550,23 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
